--- a/data/trans_bre/P57_AC_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Habitat-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeCdic</t>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P57_AC_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P57_AC_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,98%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 21,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 20,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 19,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,57; 11,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 37,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 33,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 30,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,24; 20,32</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,2; 4,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,35; 14,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 8,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 9,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,51; 6,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,81; 25,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 11,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 17,09</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,93%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 9,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,64; 11,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,98; 9,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 15,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 14,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 18,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,85; 13,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 28,49</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,91%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 9,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 9,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,92; 4,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 4,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 15,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 15,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 5,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,3; 7,55</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,29%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 5,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,63; 10,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 4,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,22; 4,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,69; 7,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,58; 15,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 5,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,23; 7,47</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 5,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,74; 9,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 4,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 5,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 7,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,96; 13,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 6,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 8,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AC_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,98%</t>
+          <t>6,21%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 21,52</t>
+          <t>-3,52; 5,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 20,69</t>
+          <t>3,94; 13,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 19,64</t>
+          <t>0,91; 8,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 11,19</t>
+          <t>-2,14; 9,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 37,22</t>
+          <t>-4,54; 7,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 33,35</t>
+          <t>6,07; 23,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 30,3</t>
+          <t>1,11; 11,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 20,32</t>
+          <t>-3,32; 16,61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>15,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>30,83%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 4,58</t>
+          <t>1,05; 9,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 14,51</t>
+          <t>2,64; 11,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 8,58</t>
+          <t>2,98; 9,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 9,44</t>
+          <t>1,02; 38,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 6,21</t>
+          <t>1,56; 14,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 25,73</t>
+          <t>3,9; 18,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 11,18</t>
+          <t>3,85; 13,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 17,09</t>
+          <t>1,66; 127,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>-4,48%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,19</t>
+          <t>-1,99; 9,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 11,45</t>
+          <t>-0,58; 9,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 9,95</t>
+          <t>-3,92; 4,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 15,33</t>
+          <t>-12,26; 3,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 14,04</t>
+          <t>-3,08; 15,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 18,14</t>
+          <t>-0,91; 15,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 13,55</t>
+          <t>-4,59; 5,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 28,49</t>
+          <t>-18,43; 5,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>-4,15%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 9,1</t>
+          <t>-3,28; 5,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 9,5</t>
+          <t>2,63; 10,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,24</t>
+          <t>-3,2; 4,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 4,6</t>
+          <t>-15,85; 3,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 15,34</t>
+          <t>-4,69; 7,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 15,73</t>
+          <t>3,58; 15,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 5,19</t>
+          <t>-4,0; 5,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 7,55</t>
+          <t>-26,73; 5,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 5,07</t>
+          <t>0,62; 5,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,74</t>
+          <t>4,74; 9,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,54</t>
+          <t>1,26; 4,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 4,42</t>
+          <t>-1,56; 17,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 7,76</t>
+          <t>0,91; 7,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,58; 15,5</t>
+          <t>6,96; 13,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,96</t>
+          <t>1,57; 6,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 7,47</t>
+          <t>-2,6; 39,49</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,04%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>10,33%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 5,18</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,74; 9,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 4,93</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 5,07</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 7,74</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>6,96; 13,68</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 6,35</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 8,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P57_AC_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 5,65</t>
+          <t>-3,13; 5,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 13,69</t>
+          <t>3,37; 13,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,76</t>
+          <t>0,74; 9,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 9,08</t>
+          <t>-2,45; 8,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 7,85</t>
+          <t>-4,0; 8,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 23,25</t>
+          <t>5,24; 23,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 11,42</t>
+          <t>1,04; 12,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 16,61</t>
+          <t>-3,94; 15,7</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,19</t>
+          <t>0,75; 9,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 11,45</t>
+          <t>3,11; 11,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 9,95</t>
+          <t>2,7; 9,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 38,51</t>
+          <t>0,76; 38,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 14,04</t>
+          <t>1,14; 14,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 18,14</t>
+          <t>4,53; 18,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 13,55</t>
+          <t>3,44; 13,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 127,28</t>
+          <t>1,33; 136,67</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 9,1</t>
+          <t>-1,81; 8,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 9,5</t>
+          <t>-0,57; 9,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,24</t>
+          <t>-4,05; 3,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 3,23</t>
+          <t>-11,45; 3,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 15,34</t>
+          <t>-2,8; 14,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 15,73</t>
+          <t>-0,87; 15,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 5,19</t>
+          <t>-4,79; 4,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 5,09</t>
+          <t>-17,44; 4,72</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 5,07</t>
+          <t>-3,12; 4,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,74</t>
+          <t>2,68; 10,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,54</t>
+          <t>-3,32; 4,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 3,32</t>
+          <t>-15,27; 3,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 7,76</t>
+          <t>-4,47; 7,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 15,5</t>
+          <t>3,6; 15,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,96</t>
+          <t>-4,14; 5,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 5,76</t>
+          <t>-25,63; 5,7</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,18</t>
+          <t>0,64; 5,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,0</t>
+          <t>4,53; 8,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,93</t>
+          <t>1,17; 4,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 17,39</t>
+          <t>-1,68; 16,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,74</t>
+          <t>0,92; 7,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,96; 13,68</t>
+          <t>6,72; 13,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,35</t>
+          <t>1,49; 6,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 39,49</t>
+          <t>-2,73; 37,78</t>
         </is>
       </c>
     </row>
